--- a/portugues/troubleshooting.xlsx
+++ b/portugues/troubleshooting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herik\OneDrive\Área de Trabalho\chatbot_hipotese\portugues\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\chatbot_hipotese\portugues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AA2E73-2752-4ADD-A950-1BED84172943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F4B1D3-A2BA-407F-938C-E9AD8125CE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -2579,7 +2579,7 @@
   <dimension ref="A1:L192"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
